--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N2">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O2">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P2">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q2">
-        <v>247.529311881049</v>
+        <v>222.8098357423027</v>
       </c>
       <c r="R2">
-        <v>2227.763806929441</v>
+        <v>2005.288521680724</v>
       </c>
       <c r="S2">
-        <v>0.315352305013098</v>
+        <v>0.3038523906254319</v>
       </c>
       <c r="T2">
-        <v>0.315352305013098</v>
+        <v>0.3038523906254319</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q3">
-        <v>250.544049613792</v>
+        <v>250.8477019813084</v>
       </c>
       <c r="R3">
-        <v>2254.896446524128</v>
+        <v>2257.629317831776</v>
       </c>
       <c r="S3">
-        <v>0.3191930804178602</v>
+        <v>0.3420884615617766</v>
       </c>
       <c r="T3">
-        <v>0.3191930804178602</v>
+        <v>0.3420884615617765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H4">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I4">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J4">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N4">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q4">
-        <v>70.132802172829</v>
+        <v>137.0914230977978</v>
       </c>
       <c r="R4">
-        <v>631.195219555461</v>
+        <v>1233.82280788018</v>
       </c>
       <c r="S4">
-        <v>0.0893491791099771</v>
+        <v>0.1869556453992739</v>
       </c>
       <c r="T4">
-        <v>0.08934917910997711</v>
+        <v>0.1869556453992739</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N5">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O5">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P5">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q5">
-        <v>22.63888094508367</v>
+        <v>20.353384896964</v>
       </c>
       <c r="R5">
-        <v>203.749928505753</v>
+        <v>183.180464072676</v>
       </c>
       <c r="S5">
-        <v>0.02884193081900544</v>
+        <v>0.02775651549519049</v>
       </c>
       <c r="T5">
-        <v>0.02884193081900543</v>
+        <v>0.02775651549519048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.369632</v>
       </c>
       <c r="O6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q6">
         <v>22.91460703220267</v>
@@ -818,10 +818,10 @@
         <v>206.231463289824</v>
       </c>
       <c r="S6">
-        <v>0.02919320581130616</v>
+        <v>0.03124933019128465</v>
       </c>
       <c r="T6">
-        <v>0.02919320581130616</v>
+        <v>0.03124933019128465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N7">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q7">
-        <v>6.414303609823667</v>
+        <v>12.52312085364666</v>
       </c>
       <c r="R7">
-        <v>57.728732488413</v>
+        <v>112.70808768282</v>
       </c>
       <c r="S7">
-        <v>0.008171821805830313</v>
+        <v>0.01707815185444835</v>
       </c>
       <c r="T7">
-        <v>0.008171821805830311</v>
+        <v>0.01707815185444835</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H8">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N8">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O8">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P8">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q8">
-        <v>71.77291849858366</v>
+        <v>24.34881283421734</v>
       </c>
       <c r="R8">
-        <v>645.9562664872529</v>
+        <v>219.1393155079561</v>
       </c>
       <c r="S8">
-        <v>0.09143868705505996</v>
+        <v>0.03320519924050852</v>
       </c>
       <c r="T8">
-        <v>0.09143868705505995</v>
+        <v>0.03320519924050851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H9">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.369632</v>
       </c>
       <c r="O9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q9">
-        <v>72.64706356020265</v>
+        <v>27.41281023383823</v>
       </c>
       <c r="R9">
-        <v>653.8235720418238</v>
+        <v>246.715292104544</v>
       </c>
       <c r="S9">
-        <v>0.09255234772822435</v>
+        <v>0.03738366349745314</v>
       </c>
       <c r="T9">
-        <v>0.09255234772822434</v>
+        <v>0.03738366349745313</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H10">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N10">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q10">
-        <v>20.33551443332366</v>
+        <v>14.98144546026889</v>
       </c>
       <c r="R10">
-        <v>183.019629899913</v>
+        <v>134.83300914242</v>
       </c>
       <c r="S10">
-        <v>0.0259074422396385</v>
+        <v>0.02043064213463246</v>
       </c>
       <c r="T10">
-        <v>0.0259074422396385</v>
+        <v>0.02043064213463245</v>
       </c>
     </row>
   </sheetData>
